--- a/biology/Zoologie/Amphibalanus/Amphibalanus.xlsx
+++ b/biology/Zoologie/Amphibalanus/Amphibalanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amphibalanus est un genre de crustacés cirripèdes de la famille des Balanidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (20 avril 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (20 avril 2023) :
 Amphibalanus amphitrite (Darwin, 1854)
 Amphibalanus caboblanquensis (Weisbord, 1966)
 Amphibalanus caribensis (Weisbord, 1966)
@@ -566,9 +580,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Amphibalanus Pitombo, 2004[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Amphibalanus Pitombo, 2004,.
 </t>
         </is>
       </c>
@@ -597,9 +613,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Amphibalanus, est la combinaison des termes Amphitrite et balanus, reprenant ainsi le protonyme de l'espèce type, Balanus amphitrite Darwin, 1854[2]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Amphibalanus, est la combinaison des termes Amphitrite et balanus, reprenant ainsi le protonyme de l'espèce type, Balanus amphitrite Darwin, 1854. 
 </t>
         </is>
       </c>
@@ -628,7 +646,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) F. B. Pitombo, « Phylogenetic analysis of the Balanidae (Cirripedia, Balanomorpha) », Zoologica Scripta, Wiley-Blackwell, vol. 33, no 3,‎ mai 2004, p. 261-276 (ISSN 0300-3256 et 1463-6409, DOI 10.1111/J.0300-3256.2004.00145.X, lire en ligne)</t>
         </is>
